--- a/ocms/src/test/resources/TestData/AttributeAssignmentData.xlsx
+++ b/ocms/src/test/resources/TestData/AttributeAssignmentData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6525F6D-A73C-4881-8318-10BD28A771A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -94,9 +95,6 @@
     <t>FaxTemplate &lt;6&gt;,TMAC &lt;7&gt;</t>
   </si>
   <si>
-    <t>Selenium &lt;10&gt;,Appium &lt;11&gt;</t>
-  </si>
-  <si>
     <t>Java &lt;13&gt;,JavaScript &lt;14&gt;</t>
   </si>
   <si>
@@ -149,12 +147,15 @@
   </si>
   <si>
     <t>IPL 2020 - 202021,DUBAI IPL - 1947</t>
+  </si>
+  <si>
+    <t>TestNG &lt;59&gt;,PostMan &lt;60&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -534,16 +535,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -554,16 +555,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -574,16 +575,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -594,16 +595,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -614,16 +615,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -634,16 +635,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -654,16 +655,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -674,16 +675,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -694,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -704,10 +705,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
